--- a/templates/proforma_invoice_template_no_discount.xlsx
+++ b/templates/proforma_invoice_template_no_discount.xlsx
@@ -65,7 +65,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -135,11 +135,18 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -159,9 +166,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -540,7 +549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -745,76 +754,60 @@
           <t>{{Contract__c.Export_Route_Carrier__c}}</t>
         </is>
       </c>
-      <c r="D10" s="5" t="n"/>
-      <c r="E10" s="5" t="n"/>
-      <c r="F10" s="4" t="n"/>
-      <c r="G10" s="6" t="inlineStr">
-        <is>
-          <t>{{Contract__c.Incoterms__c}}</t>
-        </is>
-      </c>
-      <c r="H10" s="5" t="n"/>
-      <c r="I10" s="5" t="n"/>
-      <c r="J10" s="5" t="n"/>
-      <c r="K10" s="5" t="n"/>
-      <c r="L10" s="5" t="n"/>
-      <c r="M10" s="5" t="n"/>
-      <c r="N10" s="4" t="n"/>
+      <c r="D10" s="13" t="n"/>
+      <c r="E10" s="13" t="n"/>
+      <c r="F10" s="7" t="n"/>
+      <c r="G10" s="14" t="inlineStr">
+        <is>
+          <t>FREIGHT: {{#if Contract__c.Incoterms__c 'contains' 'FREIGHT'}}☑{{else}}☐{{/if}}
+PREPAID: {{#if Contract__c.Incoterms__c 'contains' 'PREPAID'}}☑{{else}}☐{{/if}}
+COLLECT: {{#if Contract__c.Incoterms__c 'contains' 'COLLECT'}}☑{{else}}☐{{/if}}</t>
+        </is>
+      </c>
+      <c r="H10" s="8" t="n"/>
+      <c r="I10" s="8" t="n"/>
+      <c r="J10" s="8" t="n"/>
+      <c r="K10" s="8" t="n"/>
+      <c r="L10" s="8" t="n"/>
+      <c r="M10" s="8" t="n"/>
+      <c r="N10" s="8" t="n"/>
     </row>
     <row r="11" ht="25" customHeight="1">
       <c r="A11" s="9" t="n"/>
       <c r="B11" s="10" t="n"/>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>PACKING:</t>
-        </is>
-      </c>
-      <c r="D11" s="5" t="n"/>
-      <c r="E11" s="5" t="n"/>
-      <c r="F11" s="4" t="n"/>
-      <c r="G11" s="3" t="inlineStr">
-        <is>
-          <t>SHIPPING SCHEDULE:</t>
-        </is>
-      </c>
-      <c r="H11" s="5" t="n"/>
-      <c r="I11" s="5" t="n"/>
-      <c r="J11" s="5" t="n"/>
-      <c r="K11" s="5" t="n"/>
-      <c r="L11" s="5" t="n"/>
-      <c r="M11" s="5" t="n"/>
-      <c r="N11" s="4" t="n"/>
+      <c r="C11" s="9" t="n"/>
+      <c r="F11" s="10" t="n"/>
+      <c r="G11" s="8" t="n"/>
+      <c r="H11" s="8" t="n"/>
+      <c r="I11" s="8" t="n"/>
+      <c r="J11" s="8" t="n"/>
+      <c r="K11" s="8" t="n"/>
+      <c r="L11" s="8" t="n"/>
+      <c r="M11" s="8" t="n"/>
+      <c r="N11" s="8" t="n"/>
     </row>
     <row r="12" ht="25" customHeight="1">
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="10" t="n"/>
-      <c r="C12" s="6" t="inlineStr">
-        <is>
-          <t>{{Contract__c.Packing__c}}</t>
-        </is>
-      </c>
-      <c r="D12" s="5" t="n"/>
-      <c r="E12" s="5" t="n"/>
-      <c r="F12" s="4" t="n"/>
-      <c r="G12" s="6" t="inlineStr">
-        <is>
-          <t>{{Contract__c.Shipping_Schedule__c}}</t>
-        </is>
-      </c>
-      <c r="H12" s="5" t="n"/>
-      <c r="I12" s="5" t="n"/>
-      <c r="J12" s="5" t="n"/>
-      <c r="K12" s="5" t="n"/>
-      <c r="L12" s="5" t="n"/>
-      <c r="M12" s="5" t="n"/>
-      <c r="N12" s="4" t="n"/>
+      <c r="C12" s="11" t="n"/>
+      <c r="D12" s="15" t="n"/>
+      <c r="E12" s="15" t="n"/>
+      <c r="F12" s="12" t="n"/>
+      <c r="G12" s="8" t="n"/>
+      <c r="H12" s="8" t="n"/>
+      <c r="I12" s="8" t="n"/>
+      <c r="J12" s="8" t="n"/>
+      <c r="K12" s="8" t="n"/>
+      <c r="L12" s="8" t="n"/>
+      <c r="M12" s="8" t="n"/>
+      <c r="N12" s="8" t="n"/>
     </row>
     <row r="13" ht="25" customHeight="1">
       <c r="A13" s="9" t="n"/>
       <c r="B13" s="10" t="n"/>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>TERMS OF SALE:</t>
+          <t>PACKING:</t>
         </is>
       </c>
       <c r="D13" s="5" t="n"/>
@@ -822,7 +815,7 @@
       <c r="F13" s="4" t="n"/>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>TERMS OF PAYMENT:</t>
+          <t>SHIPPING SCHEDULE:</t>
         </is>
       </c>
       <c r="H13" s="5" t="n"/>
@@ -833,58 +826,74 @@
       <c r="M13" s="5" t="n"/>
       <c r="N13" s="4" t="n"/>
     </row>
-    <row r="14" ht="20" customHeight="1">
+    <row r="14" ht="45" customHeight="1">
       <c r="A14" s="9" t="n"/>
       <c r="B14" s="10" t="n"/>
-      <c r="C14" s="13" t="inlineStr">
+      <c r="C14" s="6" t="inlineStr">
+        <is>
+          <t>{{Contract__c.Packing__c}}</t>
+        </is>
+      </c>
+      <c r="D14" s="5" t="n"/>
+      <c r="E14" s="5" t="n"/>
+      <c r="F14" s="4" t="n"/>
+      <c r="G14" s="6" t="inlineStr">
+        <is>
+          <t>{{Contract__c.Shipping_Schedule__c}}</t>
+        </is>
+      </c>
+      <c r="H14" s="5" t="n"/>
+      <c r="I14" s="5" t="n"/>
+      <c r="J14" s="5" t="n"/>
+      <c r="K14" s="5" t="n"/>
+      <c r="L14" s="5" t="n"/>
+      <c r="M14" s="5" t="n"/>
+      <c r="N14" s="4" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="9" t="n"/>
+      <c r="B15" s="10" t="n"/>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>TERMS OF SALE:</t>
+        </is>
+      </c>
+      <c r="D15" s="5" t="n"/>
+      <c r="E15" s="5" t="n"/>
+      <c r="F15" s="4" t="n"/>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>TERMS OF PAYMENT:</t>
+        </is>
+      </c>
+      <c r="H15" s="5" t="n"/>
+      <c r="I15" s="5" t="n"/>
+      <c r="J15" s="5" t="n"/>
+      <c r="K15" s="5" t="n"/>
+      <c r="L15" s="5" t="n"/>
+      <c r="M15" s="5" t="n"/>
+      <c r="N15" s="4" t="n"/>
+    </row>
+    <row r="16" ht="20" customHeight="1">
+      <c r="A16" s="9" t="n"/>
+      <c r="B16" s="10" t="n"/>
+      <c r="C16" s="14" t="inlineStr">
         <is>
           <t>FOB : {{#if Contract__c.Terms_of_Sale__c '==' 'FOB'}}☑{{else}}☐{{/if}}
 C&amp;F : {{#if Contract__c.Terms_of_Sale__c '==' 'C&amp;F'}}☑{{else}}☐{{/if}}
 CIF : {{#if Contract__c.Terms_of_Sale__c '==' 'CIF'}}☑{{else}}☐{{/if}}</t>
         </is>
       </c>
-      <c r="D14" s="8" t="n"/>
-      <c r="E14" s="8" t="n"/>
-      <c r="F14" s="8" t="n"/>
-      <c r="G14" s="13" t="inlineStr">
+      <c r="D16" s="8" t="n"/>
+      <c r="E16" s="8" t="n"/>
+      <c r="F16" s="8" t="n"/>
+      <c r="G16" s="14" t="inlineStr">
         <is>
           <t>IRREVOCABLE LETTER OF CREDIT : {{#if Contract__c.Terms_of_Payment__c '==' 'IRREVOCABLE LETTER OF CREDIT'}}☑{{else}}☐{{/if}}
 T/T AT SIGHT DRAFT           : {{#if Contract__c.Terms_of_Payment__c '==' 'T/T AT SIGHT DRAFT'}}☑{{else}}☐{{/if}}
 CASH IN ADVANCE/WIRE TRANSFER: {{#if Contract__c.Terms_of_Payment__c '==' 'CASH IN ADVANCE/WIRE TRANSFER'}}☑{{else}}☐{{/if}}</t>
         </is>
       </c>
-      <c r="H14" s="8" t="n"/>
-      <c r="I14" s="8" t="n"/>
-      <c r="J14" s="8" t="n"/>
-      <c r="K14" s="8" t="n"/>
-      <c r="L14" s="8" t="n"/>
-      <c r="M14" s="8" t="n"/>
-      <c r="N14" s="8" t="n"/>
-    </row>
-    <row r="15" ht="20" customHeight="1">
-      <c r="A15" s="9" t="n"/>
-      <c r="B15" s="10" t="n"/>
-      <c r="C15" s="8" t="n"/>
-      <c r="D15" s="8" t="n"/>
-      <c r="E15" s="8" t="n"/>
-      <c r="F15" s="8" t="n"/>
-      <c r="G15" s="8" t="n"/>
-      <c r="H15" s="8" t="n"/>
-      <c r="I15" s="8" t="n"/>
-      <c r="J15" s="8" t="n"/>
-      <c r="K15" s="8" t="n"/>
-      <c r="L15" s="8" t="n"/>
-      <c r="M15" s="8" t="n"/>
-      <c r="N15" s="8" t="n"/>
-    </row>
-    <row r="16" ht="20" customHeight="1">
-      <c r="A16" s="11" t="n"/>
-      <c r="B16" s="12" t="n"/>
-      <c r="C16" s="8" t="n"/>
-      <c r="D16" s="8" t="n"/>
-      <c r="E16" s="8" t="n"/>
-      <c r="F16" s="8" t="n"/>
-      <c r="G16" s="8" t="n"/>
       <c r="H16" s="8" t="n"/>
       <c r="I16" s="8" t="n"/>
       <c r="J16" s="8" t="n"/>
@@ -893,18 +902,10 @@
       <c r="M16" s="8" t="n"/>
       <c r="N16" s="8" t="n"/>
     </row>
-    <row r="17">
-      <c r="A17" s="14" t="inlineStr">
-        <is>
-          <t>REMARK NUMBER ON DOCUMENTS :</t>
-        </is>
-      </c>
-      <c r="B17" s="8" t="n"/>
-      <c r="C17" s="14" t="inlineStr">
-        <is>
-          <t>BANK DETAIL: A PLUS MINERAL MATERIAL CORPORATION</t>
-        </is>
-      </c>
+    <row r="17" ht="20" customHeight="1">
+      <c r="A17" s="9" t="n"/>
+      <c r="B17" s="10" t="n"/>
+      <c r="C17" s="8" t="n"/>
       <c r="D17" s="8" t="n"/>
       <c r="E17" s="8" t="n"/>
       <c r="F17" s="8" t="n"/>
@@ -917,19 +918,10 @@
       <c r="M17" s="8" t="n"/>
       <c r="N17" s="8" t="n"/>
     </row>
-    <row r="18" ht="40" customHeight="1">
-      <c r="A18" s="6" t="inlineStr">
-        <is>
-          <t>{{Contract__c.REMARK_NUMBER_ON_DOCUMENTS__c}}</t>
-        </is>
-      </c>
-      <c r="B18" s="8" t="n"/>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>Account No: 018.137.261.4117 Bank for Foreign Trade of Viet Nam (Vietcombank), Nam Sai Gon branch
-Swift Code: BFTVVNVX018 ; Tel: 84.8.5413.5124 ; Fax: 84.8.5413.5127</t>
-        </is>
-      </c>
+    <row r="18" ht="20" customHeight="1">
+      <c r="A18" s="11" t="n"/>
+      <c r="B18" s="12" t="n"/>
+      <c r="C18" s="8" t="n"/>
       <c r="D18" s="8" t="n"/>
       <c r="E18" s="8" t="n"/>
       <c r="F18" s="8" t="n"/>
@@ -942,262 +934,263 @@
       <c r="M18" s="8" t="n"/>
       <c r="N18" s="8" t="n"/>
     </row>
-    <row r="20">
-      <c r="A20" s="15" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="16" t="inlineStr">
+        <is>
+          <t>REMARK NUMBER ON DOCUMENTS :</t>
+        </is>
+      </c>
+      <c r="B19" s="8" t="n"/>
+      <c r="C19" s="16" t="inlineStr">
+        <is>
+          <t>BANK DETAIL: A PLUS MINERAL MATERIAL CORPORATION</t>
+        </is>
+      </c>
+      <c r="D19" s="8" t="n"/>
+      <c r="E19" s="8" t="n"/>
+      <c r="F19" s="8" t="n"/>
+      <c r="G19" s="8" t="n"/>
+      <c r="H19" s="8" t="n"/>
+      <c r="I19" s="8" t="n"/>
+      <c r="J19" s="8" t="n"/>
+      <c r="K19" s="8" t="n"/>
+      <c r="L19" s="8" t="n"/>
+      <c r="M19" s="8" t="n"/>
+      <c r="N19" s="8" t="n"/>
+    </row>
+    <row r="20" ht="40" customHeight="1">
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>{{Contract__c.REMARK_NUMBER_ON_DOCUMENTS__c}}</t>
+        </is>
+      </c>
+      <c r="B20" s="8" t="n"/>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>Account No: 018.137.261.4117 Bank for Foreign Trade of Viet Nam (Vietcombank), Nam Sai Gon branch
+Swift Code: BFTVVNVX018 ; Tel: 84.8.5413.5124 ; Fax: 84.8.5413.5127</t>
+        </is>
+      </c>
+      <c r="D20" s="8" t="n"/>
+      <c r="E20" s="8" t="n"/>
+      <c r="F20" s="8" t="n"/>
+      <c r="G20" s="8" t="n"/>
+      <c r="H20" s="8" t="n"/>
+      <c r="I20" s="8" t="n"/>
+      <c r="J20" s="8" t="n"/>
+      <c r="K20" s="8" t="n"/>
+      <c r="L20" s="8" t="n"/>
+      <c r="M20" s="8" t="n"/>
+      <c r="N20" s="8" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="17" t="inlineStr">
         <is>
           <t>ITEM NO.</t>
         </is>
       </c>
-      <c r="B20" s="15" t="inlineStr">
+      <c r="B22" s="17" t="inlineStr">
         <is>
           <t>PRODUCT DESCRIPTION</t>
         </is>
       </c>
-      <c r="C20" s="15" t="inlineStr">
+      <c r="C22" s="17" t="inlineStr">
         <is>
           <t>SIZE (cm)</t>
         </is>
       </c>
-      <c r="D20" s="15" t="n"/>
-      <c r="E20" s="15" t="n"/>
-      <c r="F20" s="15" t="inlineStr">
+      <c r="D22" s="17" t="n"/>
+      <c r="E22" s="17" t="n"/>
+      <c r="F22" s="17" t="inlineStr">
         <is>
           <t>QUANTITY</t>
         </is>
       </c>
-      <c r="G20" s="15" t="n"/>
-      <c r="H20" s="15" t="n"/>
-      <c r="I20" s="15" t="n"/>
-      <c r="J20" s="15" t="n"/>
-      <c r="K20" s="15" t="n"/>
-      <c r="L20" s="15" t="inlineStr">
+      <c r="G22" s="17" t="n"/>
+      <c r="H22" s="17" t="n"/>
+      <c r="I22" s="17" t="n"/>
+      <c r="J22" s="17" t="n"/>
+      <c r="K22" s="17" t="n"/>
+      <c r="L22" s="17" t="inlineStr">
         <is>
           <t>Unit Price (USD)</t>
         </is>
       </c>
-      <c r="M20" s="15" t="inlineStr">
+      <c r="M22" s="17" t="inlineStr">
         <is>
           <t>Total Price (USD)</t>
         </is>
       </c>
-      <c r="N20" s="15" t="inlineStr">
+      <c r="N22" s="17" t="inlineStr">
         <is>
           <t>Packing (pcs/crate)</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="15" t="n"/>
-      <c r="B21" s="15" t="n"/>
-      <c r="C21" s="15" t="inlineStr">
-        <is>
-          <t>L</t>
-        </is>
-      </c>
-      <c r="D21" s="15" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="E21" s="15" t="inlineStr">
-        <is>
-          <t>H</t>
-        </is>
-      </c>
-      <c r="F21" s="15" t="inlineStr">
-        <is>
-          <t>PCS</t>
-        </is>
-      </c>
-      <c r="G21" s="15" t="inlineStr">
-        <is>
-          <t>m2</t>
-        </is>
-      </c>
-      <c r="H21" s="15" t="inlineStr">
-        <is>
-          <t>Crates</t>
-        </is>
-      </c>
-      <c r="I21" s="15" t="inlineStr">
-        <is>
-          <t>m3</t>
-        </is>
-      </c>
-      <c r="J21" s="15" t="inlineStr">
-        <is>
-          <t>Tons</t>
-        </is>
-      </c>
-      <c r="K21" s="15" t="inlineStr">
-        <is>
-          <t>Cont.</t>
-        </is>
-      </c>
-      <c r="L21" s="15" t="n"/>
-      <c r="M21" s="15" t="n"/>
-      <c r="N21" s="15" t="n"/>
-    </row>
-    <row r="22" ht="30" customHeight="1">
-      <c r="A22" s="16" t="inlineStr">
-        <is>
-          <t>{{TableStart:ContractProduct2}}{{Line_number_For_print__c}}</t>
-        </is>
-      </c>
-      <c r="B22" s="13" t="inlineStr">
-        <is>
-          <t>{{Product_Discription__c}}</t>
-        </is>
-      </c>
-      <c r="C22" s="16" t="inlineStr">
-        <is>
-          <t>{{L_PI__c}}</t>
-        </is>
-      </c>
-      <c r="D22" s="16" t="inlineStr">
-        <is>
-          <t>{{W_PI__c}}</t>
-        </is>
-      </c>
-      <c r="E22" s="16" t="inlineStr">
-        <is>
-          <t>{{H_PI__c}}</t>
-        </is>
-      </c>
-      <c r="F22" s="16" t="inlineStr">
-        <is>
-          <t>{{PCS_PI__c}}</t>
-        </is>
-      </c>
-      <c r="G22" s="16" t="inlineStr">
-        <is>
-          <t>{{m2__c}}</t>
-        </is>
-      </c>
-      <c r="H22" s="16" t="inlineStr">
-        <is>
-          <t>{{Crates_PI__c}}</t>
-        </is>
-      </c>
-      <c r="I22" s="16" t="inlineStr">
-        <is>
-          <t>{{m3__c}}</t>
-        </is>
-      </c>
-      <c r="J22" s="16" t="inlineStr">
-        <is>
-          <t>{{Tons__c}}</t>
-        </is>
-      </c>
-      <c r="K22" s="16" t="inlineStr">
-        <is>
-          <t>{{Cont__c}}</t>
-        </is>
-      </c>
-      <c r="L22" s="16" t="inlineStr">
-        <is>
-          <t>{{Sales_Price__c}} {{Charge_Unit__c}}</t>
-        </is>
-      </c>
-      <c r="M22" s="16" t="inlineStr">
-        <is>
-          <t>{{Total_Price_USD__c\# #,##0.##}}</t>
-        </is>
-      </c>
-      <c r="N22" s="16" t="inlineStr">
-        <is>
-          <t>{{Packing_PI__c}} {{TableEnd:ContractProduct2}}</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="17" t="n"/>
       <c r="B23" s="17" t="n"/>
-      <c r="C23" s="17" t="n"/>
-      <c r="D23" s="17" t="n"/>
-      <c r="E23" s="17" t="n"/>
-      <c r="F23" s="17" t="n"/>
-      <c r="G23" s="17" t="n"/>
+      <c r="C23" s="17" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="D23" s="17" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="E23" s="17" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="F23" s="17" t="inlineStr">
+        <is>
+          <t>PCS</t>
+        </is>
+      </c>
+      <c r="G23" s="17" t="inlineStr">
+        <is>
+          <t>m2</t>
+        </is>
+      </c>
       <c r="H23" s="17" t="inlineStr">
         <is>
-          <t>{{Contract__c.Total_Crates__c}}</t>
+          <t>Crates</t>
         </is>
       </c>
       <c r="I23" s="17" t="inlineStr">
         <is>
-          <t>{{Contract__c.Total_m3__c}}</t>
+          <t>m3</t>
         </is>
       </c>
       <c r="J23" s="17" t="inlineStr">
         <is>
-          <t>{{Contract__c.Total_Tons__c}}</t>
+          <t>Tons</t>
         </is>
       </c>
       <c r="K23" s="17" t="inlineStr">
         <is>
-          <t>{{Contract__c.Total_Conts__c}}</t>
+          <t>Cont.</t>
         </is>
       </c>
       <c r="L23" s="17" t="n"/>
       <c r="M23" s="17" t="n"/>
       <c r="N23" s="17" t="n"/>
     </row>
-    <row r="24">
-      <c r="A24" s="3" t="inlineStr">
+    <row r="24" ht="30" customHeight="1">
+      <c r="A24" s="18" t="inlineStr">
+        <is>
+          <t>{{TableStart:ContractProduct2}}{{Line_number_For_print__c}}</t>
+        </is>
+      </c>
+      <c r="B24" s="14" t="inlineStr">
+        <is>
+          <t>{{Product_Discription__c}}</t>
+        </is>
+      </c>
+      <c r="C24" s="18" t="inlineStr">
+        <is>
+          <t>{{L_PI__c}}</t>
+        </is>
+      </c>
+      <c r="D24" s="18" t="inlineStr">
+        <is>
+          <t>{{W_PI__c}}</t>
+        </is>
+      </c>
+      <c r="E24" s="18" t="inlineStr">
+        <is>
+          <t>{{H_PI__c}}</t>
+        </is>
+      </c>
+      <c r="F24" s="18" t="inlineStr">
+        <is>
+          <t>{{PCS_PI__c}}</t>
+        </is>
+      </c>
+      <c r="G24" s="18" t="inlineStr">
+        <is>
+          <t>{{m2__c}}</t>
+        </is>
+      </c>
+      <c r="H24" s="18" t="inlineStr">
+        <is>
+          <t>{{Crates_PI__c}}</t>
+        </is>
+      </c>
+      <c r="I24" s="18" t="inlineStr">
+        <is>
+          <t>{{m3__c}}</t>
+        </is>
+      </c>
+      <c r="J24" s="18" t="inlineStr">
+        <is>
+          <t>{{Tons__c}}</t>
+        </is>
+      </c>
+      <c r="K24" s="18" t="inlineStr">
+        <is>
+          <t>{{Cont__c}}</t>
+        </is>
+      </c>
+      <c r="L24" s="18" t="inlineStr">
+        <is>
+          <t>{{Sales_Price__c}} {{Charge_Unit__c}}</t>
+        </is>
+      </c>
+      <c r="M24" s="18" t="inlineStr">
+        <is>
+          <t>{{Total_Price_USD__c\# #,##0.##}}</t>
+        </is>
+      </c>
+      <c r="N24" s="18" t="inlineStr">
+        <is>
+          <t>{{Packing_PI__c}} {{TableEnd:ContractProduct2}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="19" t="n"/>
+      <c r="B25" s="19" t="n"/>
+      <c r="C25" s="19" t="n"/>
+      <c r="D25" s="19" t="n"/>
+      <c r="E25" s="19" t="n"/>
+      <c r="F25" s="19" t="n"/>
+      <c r="G25" s="19" t="n"/>
+      <c r="H25" s="19" t="inlineStr">
+        <is>
+          <t>{{Contract__c.Total_Crates__c}}</t>
+        </is>
+      </c>
+      <c r="I25" s="19" t="inlineStr">
+        <is>
+          <t>{{Contract__c.Total_m3__c}}</t>
+        </is>
+      </c>
+      <c r="J25" s="19" t="inlineStr">
+        <is>
+          <t>{{Contract__c.Total_Tons__c}}</t>
+        </is>
+      </c>
+      <c r="K25" s="19" t="inlineStr">
+        <is>
+          <t>{{Contract__c.Total_Conts__c}}</t>
+        </is>
+      </c>
+      <c r="L25" s="19" t="n"/>
+      <c r="M25" s="19" t="n"/>
+      <c r="N25" s="19" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
         <is>
           <t>1. All prices quoted herein are US dollars.
 2. Prices quoted herein for merchandise only are valid for 180 days.
 3. Any changes in shipping costs or insurance rates are for account of the buyer.</t>
         </is>
       </c>
-      <c r="B24" s="8" t="n"/>
-      <c r="C24" s="8" t="n"/>
-      <c r="D24" s="8" t="n"/>
-      <c r="E24" s="8" t="n"/>
-      <c r="F24" s="8" t="n"/>
-      <c r="G24" s="8" t="n"/>
-      <c r="H24" s="8" t="n"/>
-      <c r="I24" s="8" t="n"/>
-      <c r="J24" s="8" t="n"/>
-      <c r="K24" s="17" t="inlineStr">
-        <is>
-          <t>SUBTOTAL</t>
-        </is>
-      </c>
-      <c r="L24" s="5" t="n"/>
-      <c r="M24" s="4" t="n"/>
-      <c r="N24" s="17" t="inlineStr">
-        <is>
-          <t>{{Contract__c.Sub_Total_USD__c\# #,##0.##}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="8" t="n"/>
-      <c r="B25" s="8" t="n"/>
-      <c r="C25" s="8" t="n"/>
-      <c r="D25" s="8" t="n"/>
-      <c r="E25" s="8" t="n"/>
-      <c r="F25" s="8" t="n"/>
-      <c r="G25" s="8" t="n"/>
-      <c r="H25" s="8" t="n"/>
-      <c r="I25" s="8" t="n"/>
-      <c r="J25" s="8" t="n"/>
-      <c r="K25" s="17" t="inlineStr">
-        <is>
-          <t>Fumigation</t>
-        </is>
-      </c>
-      <c r="L25" s="5" t="n"/>
-      <c r="M25" s="4" t="n"/>
-      <c r="N25" s="17" t="inlineStr">
-        <is>
-          <t>{{Contract__c.Fumigation__c}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="8" t="n"/>
       <c r="B26" s="8" t="n"/>
       <c r="C26" s="8" t="n"/>
       <c r="D26" s="8" t="n"/>
@@ -1207,16 +1200,16 @@
       <c r="H26" s="8" t="n"/>
       <c r="I26" s="8" t="n"/>
       <c r="J26" s="8" t="n"/>
-      <c r="K26" s="17" t="inlineStr">
-        <is>
-          <t>Deposit ({{Contract__c.Deposit_Percentage__c}} %)</t>
+      <c r="K26" s="19" t="inlineStr">
+        <is>
+          <t>SUBTOTAL</t>
         </is>
       </c>
       <c r="L26" s="5" t="n"/>
       <c r="M26" s="4" t="n"/>
-      <c r="N26" s="17" t="inlineStr">
-        <is>
-          <t>{{Contract__c.Deposit__c\# #,##0.##}}</t>
+      <c r="N26" s="19" t="inlineStr">
+        <is>
+          <t>{{Contract__c.Sub_Total_USD__c\# #,##0.##}}</t>
         </is>
       </c>
     </row>
@@ -1231,16 +1224,16 @@
       <c r="H27" s="8" t="n"/>
       <c r="I27" s="8" t="n"/>
       <c r="J27" s="8" t="n"/>
-      <c r="K27" s="17" t="inlineStr">
-        <is>
-          <t>Surcharge: {{TableStart:PISurcharge}}{{Name}}</t>
+      <c r="K27" s="19" t="inlineStr">
+        <is>
+          <t>Fumigation</t>
         </is>
       </c>
       <c r="L27" s="5" t="n"/>
       <c r="M27" s="4" t="n"/>
-      <c r="N27" s="17" t="inlineStr">
-        <is>
-          <t>{{Surcharge_amount_USD__c\# #,##0.##}}{{TableEnd:PISurcharge}}</t>
+      <c r="N27" s="19" t="inlineStr">
+        <is>
+          <t>{{Contract__c.Fumigation__c}}</t>
         </is>
       </c>
     </row>
@@ -1255,38 +1248,86 @@
       <c r="H28" s="8" t="n"/>
       <c r="I28" s="8" t="n"/>
       <c r="J28" s="8" t="n"/>
-      <c r="K28" s="17" t="inlineStr">
-        <is>
-          <t>TOTAL:</t>
+      <c r="K28" s="19" t="inlineStr">
+        <is>
+          <t>Deposit ({{Contract__c.Deposit_Percentage__c}} %)</t>
         </is>
       </c>
       <c r="L28" s="5" t="n"/>
       <c r="M28" s="4" t="n"/>
-      <c r="N28" s="17" t="inlineStr">
+      <c r="N28" s="19" t="inlineStr">
+        <is>
+          <t>{{Contract__c.Deposit__c\# #,##0.##}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="8" t="n"/>
+      <c r="B29" s="8" t="n"/>
+      <c r="C29" s="8" t="n"/>
+      <c r="D29" s="8" t="n"/>
+      <c r="E29" s="8" t="n"/>
+      <c r="F29" s="8" t="n"/>
+      <c r="G29" s="8" t="n"/>
+      <c r="H29" s="8" t="n"/>
+      <c r="I29" s="8" t="n"/>
+      <c r="J29" s="8" t="n"/>
+      <c r="K29" s="19" t="inlineStr">
+        <is>
+          <t>Surcharge: {{TableStart:PISurcharge}}{{Name}}</t>
+        </is>
+      </c>
+      <c r="L29" s="5" t="n"/>
+      <c r="M29" s="4" t="n"/>
+      <c r="N29" s="19" t="inlineStr">
+        <is>
+          <t>{{Surcharge_amount_USD__c\# #,##0.##}}{{TableEnd:PISurcharge}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="8" t="n"/>
+      <c r="B30" s="8" t="n"/>
+      <c r="C30" s="8" t="n"/>
+      <c r="D30" s="8" t="n"/>
+      <c r="E30" s="8" t="n"/>
+      <c r="F30" s="8" t="n"/>
+      <c r="G30" s="8" t="n"/>
+      <c r="H30" s="8" t="n"/>
+      <c r="I30" s="8" t="n"/>
+      <c r="J30" s="8" t="n"/>
+      <c r="K30" s="19" t="inlineStr">
+        <is>
+          <t>TOTAL:</t>
+        </is>
+      </c>
+      <c r="L30" s="5" t="n"/>
+      <c r="M30" s="4" t="n"/>
+      <c r="N30" s="19" t="inlineStr">
         <is>
           <t>{{Contract__c.Total_Price_USD__c\# #,##0.##}}</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="C30" s="18" t="inlineStr">
+    <row r="32">
+      <c r="C32" s="20" t="inlineStr">
         <is>
           <t>FOR AND ON BEHALF OF BUYER</t>
         </is>
       </c>
-      <c r="K30" s="18" t="inlineStr">
+      <c r="K32" s="20" t="inlineStr">
         <is>
           <t>FOR AND ON BEHALF OF SELLER</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="C34" s="18" t="inlineStr">
+    <row r="36">
+      <c r="C36" s="20" t="inlineStr">
         <is>
           <t>A PLUS CORP</t>
         </is>
       </c>
-      <c r="K34" s="18" t="inlineStr">
+      <c r="K36" s="20" t="inlineStr">
         <is>
           <t>{{Contract__c.Account__r.Name}}</t>
         </is>
@@ -1294,57 +1335,57 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="F20:K20"/>
-    <mergeCell ref="G12:N12"/>
-    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="N22:N23"/>
     <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G11:N11"/>
-    <mergeCell ref="A10:B16"/>
+    <mergeCell ref="G16:N18"/>
+    <mergeCell ref="A10:B18"/>
+    <mergeCell ref="C22:E22"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="K7:N7"/>
+    <mergeCell ref="C32:F32"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="K6:N6"/>
+    <mergeCell ref="A26:J30"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="F22:K22"/>
     <mergeCell ref="K27:M27"/>
-    <mergeCell ref="C34:F34"/>
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C30:F30"/>
-    <mergeCell ref="L20:L21"/>
     <mergeCell ref="A6:B8"/>
-    <mergeCell ref="G10:N10"/>
-    <mergeCell ref="K30:N30"/>
-    <mergeCell ref="K34:N34"/>
+    <mergeCell ref="C15:F15"/>
     <mergeCell ref="G13:N13"/>
     <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C17:N17"/>
-    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="G10:N12"/>
     <mergeCell ref="K5:N5"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="A22:A23"/>
     <mergeCell ref="K28:M28"/>
     <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G15:N15"/>
+    <mergeCell ref="C19:N19"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A24:J28"/>
     <mergeCell ref="G7:J7"/>
-    <mergeCell ref="C14:F16"/>
-    <mergeCell ref="C18:N18"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="K32:N32"/>
     <mergeCell ref="E3:J3"/>
-    <mergeCell ref="K25:M25"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="C10:F12"/>
     <mergeCell ref="G6:J6"/>
     <mergeCell ref="C9:F9"/>
-    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A19:B19"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G14:N16"/>
-    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="C16:F18"/>
     <mergeCell ref="K8:N8"/>
-    <mergeCell ref="C11:F11"/>
     <mergeCell ref="K26:M26"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="G9:N9"/>
     <mergeCell ref="G5:J5"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C20:N20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/templates/proforma_invoice_template_no_discount.xlsx
+++ b/templates/proforma_invoice_template_no_discount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hii\Desktop\sf-api-test\sf-api-test\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8479C955-0204-47FC-885E-E6774B728225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6572CE-4905-4195-8FA9-C5B545A82BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,16 +111,6 @@
     <t>TERMS OF PAYMENT:</t>
   </si>
   <si>
-    <t>FOB : {{#if Contract__c.Terms_of_Sale__c '==' 'FOB'}}☑{{else}}☐{{/if}}
-C&amp;F : {{#if Contract__c.Terms_of_Sale__c '==' 'C&amp;F'}}☑{{else}}☐{{/if}}
-CIF : {{#if Contract__c.Terms_of_Sale__c '==' 'CIF'}}☑{{else}}☐{{/if}}</t>
-  </si>
-  <si>
-    <t>IRREVOCABLE LETTER OF CREDIT : {{#if Contract__c.Terms_of_Payment__c '==' 'IRREVOCABLE LETTER OF CREDIT'}}☑{{else}}☐{{/if}}
-T/T AT SIGHT DRAFT           : {{#if Contract__c.Terms_of_Payment__c '==' 'T/T AT SIGHT DRAFT'}}☑{{else}}☐{{/if}}
-CASH IN ADVANCE/WIRE TRANSFER: {{#if Contract__c.Terms_of_Payment__c '==' 'CASH IN ADVANCE/WIRE TRANSFER'}}☑{{else}}☐{{/if}}</t>
-  </si>
-  <si>
     <t>REMARK NUMBER ON DOCUMENTS :</t>
   </si>
   <si>
@@ -283,9 +273,13 @@
     <t>{{Contract__c.Account__r.Name}}</t>
   </si>
   <si>
-    <t>FREIGHT: {{#if Contract__c.Incoterms__c '==' 'FREIGHT'}}☑{{else}}☐{{/if}}
-PREPAID: {{#if Contract__c.Incoterms__c '==' 'PREPAID'}}☑{{else}}☐{{/if}}
-COLLECT: {{#if Contract__c.Incoterms__c '==' 'COLLECT'}}☑{{else}}☐{{/if}}</t>
+    <t>{{Contract__c.Incoterms__c}}</t>
+  </si>
+  <si>
+    <t>{{Contract__c.Terms_of_Sale__c}}</t>
+  </si>
+  <si>
+    <t>{{Contract__c.Terms_of_Payment__c}}</t>
   </si>
 </sst>
 </file>
@@ -474,11 +468,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -486,28 +479,29 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -813,7 +807,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:N12"/>
+      <selection activeCell="G16" sqref="G16:N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -826,449 +820,449 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="16" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="16" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="16" t="s">
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="9"/>
     </row>
     <row r="6" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="6" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="9"/>
     </row>
     <row r="7" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="16" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="16" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="16" t="s">
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="9"/>
     </row>
     <row r="8" spans="1:14" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="6" t="s">
+      <c r="A8" s="20"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="6" t="s">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="6" t="s">
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="16" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="16" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="9"/>
     </row>
     <row r="10" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="17"/>
+      <c r="C10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="9" t="s">
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+    </row>
+    <row r="11" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+    </row>
+    <row r="12" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+    </row>
+    <row r="13" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="18"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-    </row>
-    <row r="11" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-    </row>
-    <row r="12" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-    </row>
-    <row r="13" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="8"/>
-    </row>
-    <row r="14" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="8"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="8"/>
-    </row>
-    <row r="16" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="9" t="s">
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+    </row>
+    <row r="17" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="18"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+    </row>
+    <row r="18" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="20"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="9" t="s">
+      <c r="B19" s="11"/>
+      <c r="C19" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-    </row>
-    <row r="17" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-    </row>
-    <row r="18" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+    </row>
+    <row r="20" spans="1:14" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="20" t="s">
+      <c r="B20" s="11"/>
+      <c r="C20" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-    </row>
-    <row r="20" spans="1:14" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="16" t="s">
+      <c r="B22" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="C22" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5" t="s">
+      <c r="M22" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5" t="s">
+      <c r="N22" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="M22" s="5" t="s">
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="23"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N22" s="5" t="s">
+      <c r="D23" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="K23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
     </row>
     <row r="24" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="D24" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="H24" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="I24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="L24" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="M24" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="N24" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
@@ -1280,153 +1274,188 @@
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J25" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="K25" s="4" t="s">
         <v>63</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>65</v>
       </c>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
     </row>
     <row r="26" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L26" s="8"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="19" t="s">
+    </row>
+    <row r="27" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="L26" s="7"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="4" t="s">
+      <c r="L27" s="8"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="19" t="s">
+    <row r="28" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="L27" s="7"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="4" t="s">
+      <c r="L28" s="8"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="19" t="s">
+    <row r="29" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="L28" s="7"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="4" t="s">
+      <c r="L29" s="8"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="19" t="s">
+    <row r="30" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="L29" s="7"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="4" t="s">
+      <c r="L30" s="8"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="19" t="s">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C32" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="L30" s="7"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="4" t="s">
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="K32" s="14" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C32" s="17" t="s">
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C36" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="K32" s="17" t="s">
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="K36" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-    </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C36" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="K36" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="G16:N18"/>
+    <mergeCell ref="A10:B18"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G15:N15"/>
+    <mergeCell ref="C19:N19"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="A26:J30"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="F22:K22"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="A6:B8"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G13:N13"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="C10:F12"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G10:N12"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="C8:F8"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="K29:M29"/>
     <mergeCell ref="C16:F18"/>
@@ -1439,45 +1468,10 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="G14:N14"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="E3:J3"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="C10:F12"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="C9:F9"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G10:N12"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G15:N15"/>
-    <mergeCell ref="C19:N19"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="A26:J30"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="F22:K22"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A6:B8"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G13:N13"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G16:N18"/>
-    <mergeCell ref="A10:B18"/>
-    <mergeCell ref="C22:E22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/templates/proforma_invoice_template_no_discount.xlsx
+++ b/templates/proforma_invoice_template_no_discount.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hii\Desktop\sf-api-test\sf-api-test\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6572CE-4905-4195-8FA9-C5B545A82BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48A18B7-0DF2-49AF-A6E0-11A20D6B9F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PI Template" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t>A PLUS MINERAL MATERIAL CORPORATION</t>
   </si>
@@ -243,12 +243,6 @@
     <t>{{Contract__c.Fumigation__c}}</t>
   </si>
   <si>
-    <t>Deposit ({{Contract__c.Deposit_Percentage__c}} %)</t>
-  </si>
-  <si>
-    <t>{{Contract__c.Deposit__c\# #,##0.##}}</t>
-  </si>
-  <si>
     <t>Surcharge: {{TableStart:PISurcharge}}{{Name}}</t>
   </si>
   <si>
@@ -280,13 +274,22 @@
   </si>
   <si>
     <t>{{Contract__c.Terms_of_Payment__c}}</t>
+  </si>
+  <si>
+    <t>Deposit: {{TableStart:PIDeposit}} ({{Contract__c.Deposit_Percentage__c}} %)</t>
+  </si>
+  <si>
+    <t>{{Contract__c.Deposit__c\# #,##0.##}}{{TableEnd:PIDeposit}}</t>
+  </si>
+  <si>
+    <t>In words: {{Contract__c.In_words__c}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,26 +301,39 @@
       <b/>
       <sz val="14"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -334,7 +350,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -450,11 +466,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -468,40 +508,76 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -806,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16:N18"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -820,376 +896,376 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="13" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="13" t="s">
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="9"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="13"/>
     </row>
     <row r="6" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="12" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="9"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="13"/>
     </row>
     <row r="7" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="13" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="13" t="s">
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="13" t="s">
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="9"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="13"/>
     </row>
     <row r="8" spans="1:14" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="12" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="12" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="12" t="s">
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="9"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="13"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="13" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="13" t="s">
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="9"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="13"/>
     </row>
     <row r="10" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="12" t="s">
+      <c r="B10" s="6"/>
+      <c r="C10" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="10" t="s">
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+    </row>
+    <row r="11" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+    </row>
+    <row r="12" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+    </row>
+    <row r="13" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="13"/>
+    </row>
+    <row r="14" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="13"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="13"/>
+    </row>
+    <row r="16" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-    </row>
-    <row r="11" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-    </row>
-    <row r="12" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-    </row>
-    <row r="13" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="9"/>
-    </row>
-    <row r="14" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="9"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="9"/>
-    </row>
-    <row r="16" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
     </row>
     <row r="17" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
     </row>
     <row r="18" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="24" t="s">
+      <c r="B19" s="17"/>
+      <c r="C19" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
     </row>
     <row r="20" spans="1:14" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="13" t="s">
+      <c r="B20" s="17"/>
+      <c r="C20" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
+      <c r="A22" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23" t="s">
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23" t="s">
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="M22" s="23" t="s">
+      <c r="M22" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="N22" s="23" t="s">
+      <c r="N22" s="18" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="23"/>
-      <c r="B23" s="23"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="2" t="s">
         <v>37</v>
       </c>
@@ -1217,9 +1293,9 @@
       <c r="K23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L23" s="23"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="23"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
     </row>
     <row r="24" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
@@ -1289,173 +1365,140 @@
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
     </row>
-    <row r="26" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="13" t="s">
+    <row r="26" spans="1:14" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="7" t="s">
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="27"/>
+      <c r="K26" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="L26" s="8"/>
-      <c r="M26" s="9"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="13"/>
       <c r="N26" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="7" t="s">
+      <c r="A27" s="28"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="L27" s="8"/>
-      <c r="M27" s="9"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="13"/>
       <c r="N27" s="4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="7" t="s">
+    <row r="28" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="28"/>
+      <c r="B28" s="29"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="L28" s="12"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="31"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="L28" s="8"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="4" t="s">
+      <c r="L29" s="12"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="7" t="s">
+    <row r="30" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="L29" s="8"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="4" t="s">
+      <c r="L30" s="12"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="4" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L30" s="8"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C32" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
       <c r="K32" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
+        <v>74</v>
+      </c>
+      <c r="L32" s="15"/>
+      <c r="M32" s="15"/>
+      <c r="N32" s="15"/>
     </row>
     <row r="36" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C36" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
+        <v>75</v>
+      </c>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
       <c r="K36" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
+        <v>76</v>
+      </c>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="51">
-    <mergeCell ref="G16:N18"/>
-    <mergeCell ref="A10:B18"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G15:N15"/>
-    <mergeCell ref="C19:N19"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="A26:J30"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="F22:K22"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="A6:B8"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G13:N13"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="E3:J3"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="C10:F12"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G10:N12"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="C8:F8"/>
+  <mergeCells count="52">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="K29:M29"/>
     <mergeCell ref="C16:F18"/>
@@ -1472,6 +1515,42 @@
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A22:A23"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="C10:F12"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G10:N12"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="F22:K22"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="A26:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A6:B8"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G13:N13"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="G16:N18"/>
+    <mergeCell ref="A10:B18"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="G15:N15"/>
+    <mergeCell ref="C19:N19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/templates/proforma_invoice_template_no_discount.xlsx
+++ b/templates/proforma_invoice_template_no_discount.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hii\Desktop\sf-api-test\sf-api-test\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B48A18B7-0DF2-49AF-A6E0-11A20D6B9F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854DFDFC-454D-4640-9ACA-65DEA0630666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PI Template" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>A PLUS MINERAL MATERIAL CORPORATION</t>
   </si>
@@ -142,9 +142,6 @@
     <t>Total Price (USD)</t>
   </si>
   <si>
-    <t>Packing (pcs/crate)</t>
-  </si>
-  <si>
     <t>L</t>
   </si>
   <si>
@@ -283,6 +280,15 @@
   </si>
   <si>
     <t>In words: {{Contract__c.In_words__c}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Packing </t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>{{Contract__c.Total_m2__c}}</t>
   </si>
 </sst>
 </file>
@@ -331,9 +337,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -494,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -508,40 +513,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -554,7 +559,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -568,6 +573,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -882,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:J30"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28:M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -896,478 +910,482 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="11" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="11" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="11" t="s">
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="13"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="9"/>
     </row>
     <row r="6" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="5" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="5" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="13"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="9"/>
     </row>
     <row r="7" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="11" t="s">
+      <c r="A7" s="19"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="11" t="s">
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="11" t="s">
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="13"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="9"/>
     </row>
     <row r="8" spans="1:14" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="5" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="5" t="s">
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="5" t="s">
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="13"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="9"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="9"/>
+      <c r="C9" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="11" t="s">
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="13"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="9"/>
     </row>
     <row r="10" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="16" t="s">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+    </row>
+    <row r="11" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+    </row>
+    <row r="12" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+    </row>
+    <row r="13" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="19"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="19"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-    </row>
-    <row r="11" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-    </row>
-    <row r="12" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-    </row>
-    <row r="13" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="13"/>
-    </row>
-    <row r="14" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="13"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="13"/>
-    </row>
-    <row r="16" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="16" t="s">
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
     </row>
     <row r="17" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
     </row>
     <row r="18" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="20" t="s">
+      <c r="B19" s="11"/>
+      <c r="C19" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
     </row>
     <row r="20" spans="1:14" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="11" t="s">
+      <c r="B20" s="11"/>
+      <c r="C20" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11"/>
+    </row>
+    <row r="22" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18" t="s">
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18" t="s">
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="M22" s="18" t="s">
+      <c r="M22" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="N22" s="18" t="s">
+      <c r="N22" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>41</v>
       </c>
       <c r="H23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="K23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K23" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
     </row>
     <row r="24" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="E24" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>52</v>
       </c>
       <c r="H24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="J24" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="L24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="M24" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="N24" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="N24" s="3" t="s">
+    </row>
+    <row r="25" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="4" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
       <c r="H25" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I25" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="I25" s="4" t="s">
+      <c r="J25" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="K25" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="K25" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="36"/>
     </row>
     <row r="26" spans="1:14" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B26" s="26"/>
       <c r="C26" s="26"/>
@@ -1378,13 +1396,13 @@
       <c r="H26" s="26"/>
       <c r="I26" s="26"/>
       <c r="J26" s="27"/>
-      <c r="K26" s="19" t="s">
+      <c r="K26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L26" s="8"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="L26" s="12"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="4" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
@@ -1398,13 +1416,13 @@
       <c r="H27" s="29"/>
       <c r="I27" s="29"/>
       <c r="J27" s="30"/>
-      <c r="K27" s="19" t="s">
+      <c r="K27" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L27" s="8"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="L27" s="12"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
@@ -1418,13 +1436,13 @@
       <c r="H28" s="29"/>
       <c r="I28" s="29"/>
       <c r="J28" s="30"/>
-      <c r="K28" s="19" t="s">
+      <c r="K28" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L28" s="8"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="L28" s="12"/>
-      <c r="M28" s="13"/>
-      <c r="N28" s="4" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
@@ -1438,67 +1456,105 @@
       <c r="H29" s="32"/>
       <c r="I29" s="32"/>
       <c r="J29" s="33"/>
-      <c r="K29" s="19" t="s">
+      <c r="K29" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L29" s="8"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="L29" s="12"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="4" t="s">
+    </row>
+    <row r="30" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="37" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="34" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="19" t="s">
+      <c r="L30" s="8"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="L30" s="12"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="4" t="s">
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C32" s="24" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C32" s="14" t="s">
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="K32" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="K32" s="14" t="s">
+      <c r="L32" s="6"/>
+      <c r="M32" s="6"/>
+      <c r="N32" s="6"/>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C36" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="L32" s="15"/>
-      <c r="M32" s="15"/>
-      <c r="N32" s="15"/>
-    </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C36" s="14" t="s">
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="K36" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="K36" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
+      <c r="L36" s="6"/>
+      <c r="M36" s="6"/>
+      <c r="N36" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="52">
+  <mergeCells count="54">
+    <mergeCell ref="A6:B8"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="G13:N13"/>
+    <mergeCell ref="K32:N32"/>
+    <mergeCell ref="G16:N18"/>
+    <mergeCell ref="A10:B18"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="K28:M28"/>
+    <mergeCell ref="G15:N15"/>
+    <mergeCell ref="C19:N19"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="F22:K22"/>
+    <mergeCell ref="K27:M27"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="A26:J29"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="E3:J3"/>
+    <mergeCell ref="K30:M30"/>
+    <mergeCell ref="C10:F12"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="G10:N12"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="K7:N7"/>
+    <mergeCell ref="K6:N6"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:J8"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="K29:M29"/>
     <mergeCell ref="C16:F18"/>
@@ -1515,42 +1571,6 @@
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="E3:J3"/>
-    <mergeCell ref="K30:M30"/>
-    <mergeCell ref="C10:F12"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="G10:N12"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="K7:N7"/>
-    <mergeCell ref="K6:N6"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="F22:K22"/>
-    <mergeCell ref="K27:M27"/>
-    <mergeCell ref="K36:N36"/>
-    <mergeCell ref="A26:J29"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A6:B8"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="G13:N13"/>
-    <mergeCell ref="K32:N32"/>
-    <mergeCell ref="G16:N18"/>
-    <mergeCell ref="A10:B18"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="K28:M28"/>
-    <mergeCell ref="G15:N15"/>
-    <mergeCell ref="C19:N19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/templates/proforma_invoice_template_no_discount.xlsx
+++ b/templates/proforma_invoice_template_no_discount.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hii\Desktop\sf-api-test\sf-api-test\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854DFDFC-454D-4640-9ACA-65DEA0630666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC0F265-E89D-4D48-B1EE-6EC571429A20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>A PLUS MINERAL MATERIAL CORPORATION</t>
   </si>
@@ -45,9 +45,6 @@
 102 Nguyen Luong Bang, Dist. 7
 Ho Chi Minh City. Vietnam.
 Tel: 84.8.5412.2189 ; Fax: 84.8.5413.6218</t>
-  </si>
-  <si>
-    <t>{{Contract__c.Name}}</t>
   </si>
   <si>
     <t>{{Contract__c.Created_Date__c}}</t>
@@ -290,12 +287,18 @@
   <si>
     <t>{{Contract__c.Total_m2__c}}</t>
   </si>
+  <si>
+    <t>{{Contract__c.Total_Pcs_PO__c}}</t>
+  </si>
+  <si>
+    <t>{{Contract__c.Name}} ({{Contract__c.Customer_PO_number__c}})</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,31 +308,7 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -339,6 +318,31 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="3">
@@ -499,42 +503,48 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -544,53 +554,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -896,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28:M28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -910,610 +920,612 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E3" s="16" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="3" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="5" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="13" t="s">
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="13" t="s">
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="9"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="11"/>
     </row>
     <row r="6" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="12" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="12" t="s">
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="11"/>
+    </row>
+    <row r="7" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="9"/>
-    </row>
-    <row r="7" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="13" t="s">
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="13" t="s">
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="13" t="s">
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="11"/>
+    </row>
+    <row r="8" spans="1:14" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="23"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="9"/>
-    </row>
-    <row r="8" spans="1:14" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="12" t="s">
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="12" t="s">
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="12" t="s">
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="11"/>
+    </row>
+    <row r="9" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="9"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="13" t="s">
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="13" t="s">
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="11"/>
+    </row>
+    <row r="10" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="9"/>
-    </row>
-    <row r="10" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="12" t="s">
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+    </row>
+    <row r="11" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+    </row>
+    <row r="12" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="21"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+    </row>
+    <row r="13" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="21"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="10" t="s">
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="11"/>
+    </row>
+    <row r="14" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="21"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="11"/>
+    </row>
+    <row r="15" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="21"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="11"/>
+    </row>
+    <row r="16" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-    </row>
-    <row r="11" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-    </row>
-    <row r="12" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-    </row>
-    <row r="13" spans="1:14" ht="25.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="9"/>
-    </row>
-    <row r="14" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="9"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="13" t="s">
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+    </row>
+    <row r="17" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="21"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+    </row>
+    <row r="18" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="23"/>
+      <c r="B18" s="25"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="9"/>
-    </row>
-    <row r="16" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="10" t="s">
+      <c r="B19" s="13"/>
+      <c r="C19" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+    </row>
+    <row r="20" spans="1:14" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+    </row>
+    <row r="22" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="M22" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N22" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
+    </row>
+    <row r="24" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="L24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L25" s="39"/>
+      <c r="M25" s="40"/>
+      <c r="N25" s="41"/>
+    </row>
+    <row r="26" spans="1:14" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="L26" s="10"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A27" s="30"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="31"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="L27" s="10"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="30"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-    </row>
-    <row r="17" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-    </row>
-    <row r="18" spans="1:14" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-    </row>
-    <row r="20" spans="1:14" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-    </row>
-    <row r="22" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="M22" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="N22" s="14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-    </row>
-    <row r="24" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N24" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="34" t="s">
-        <v>83</v>
-      </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I25" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K25" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L25" s="34"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="36"/>
-    </row>
-    <row r="26" spans="1:14" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L26" s="8"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A27" s="28"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L27" s="8"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="4" t="s">
+      <c r="L28" s="10"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="33"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="9" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="28"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="L28" s="8"/>
-      <c r="M28" s="9"/>
-      <c r="N28" s="4" t="s">
+      <c r="L29" s="10"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="36" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="31"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
-      <c r="J29" s="33"/>
-      <c r="K29" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="L29" s="8"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="4" t="s">
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="38"/>
+      <c r="K30" s="9" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A30" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="38"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="10"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L30" s="8"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="4" t="s">
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C32" s="26" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="C32" s="24" t="s">
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="K32" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="K32" s="24" t="s">
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
+      <c r="N32" s="8"/>
+    </row>
+    <row r="36" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C36" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-    </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.3">
-      <c r="C36" s="24" t="s">
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="K36" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="K36" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="54">
@@ -1528,7 +1540,6 @@
     <mergeCell ref="K28:M28"/>
     <mergeCell ref="G15:N15"/>
     <mergeCell ref="C19:N19"/>
-    <mergeCell ref="A25:F25"/>
     <mergeCell ref="L25:N25"/>
     <mergeCell ref="C36:F36"/>
     <mergeCell ref="C32:F32"/>
@@ -1539,6 +1550,7 @@
     <mergeCell ref="K36:N36"/>
     <mergeCell ref="A26:J29"/>
     <mergeCell ref="A30:J30"/>
+    <mergeCell ref="A25:E25"/>
     <mergeCell ref="E3:J3"/>
     <mergeCell ref="K30:M30"/>
     <mergeCell ref="C10:F12"/>
